--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\myworkspaces\seleniumwebdriver\OpencartV121\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47704AFE-A492-43CB-82D7-6A46F57DC3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="16354" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+  <si>
+    <t>username</t>
+  </si>
   <si>
     <t>password</t>
   </si>
@@ -36,47 +45,44 @@
     <t>res</t>
   </si>
   <si>
+    <t>lakshmi@yahoo.com</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>laksh@yahoo.com</t>
+  </si>
+  <si>
+    <t>Laxmi</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>laks@yahoo.com</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
     <t>pavanoltraining@gmail.com</t>
   </si>
   <si>
     <t>test@123</t>
   </si>
   <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>lakshmi@yahoo.com</t>
-  </si>
-  <si>
-    <t>Laxmi</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>laksh@yahoo.com</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>laks@yahoo.com</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
     <t>abc123@gmail.com</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,9 +91,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,7 +123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,15 +152,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -172,7 +205,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -184,7 +217,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -231,6 +264,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -266,6 +316,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,141 +484,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{B4FF4FF2-C3C7-488B-A3F2-29DB9D3EA93F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\myworkspaces\seleniumwebdriver\OpencartV121\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47704AFE-A492-43CB-82D7-6A46F57DC3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="16354" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18036" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -69,19 +64,22 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
     <t>test@123</t>
   </si>
   <si>
     <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>password1234</t>
+  </si>
+  <si>
+    <t>chalwaindia@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,21 +482,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,18 +507,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -531,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -542,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -553,21 +551,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -575,14 +573,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{B4FF4FF2-C3C7-488B-A3F2-29DB9D3EA93F}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5" display="test@123"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
